--- a/doc/backend/api/TRN-MiniBlog_API-Specification_TranAnhDuy.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_TranAnhDuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="957" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="957" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="312">
   <si>
     <t>Description</t>
   </si>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>DELETE /friend/:pid</t>
-  </si>
-  <si>
-    <t>Player friends (3001 -&gt; 3500)</t>
   </si>
   <si>
     <t>3001</t>
@@ -543,9 +540,6 @@
   </si>
   <si>
     <t>Sample URI</t>
-  </si>
-  <si>
-    <t>POST /v1/users</t>
   </si>
   <si>
     <t>Create new user account.</t>
@@ -716,12 +710,6 @@
       </rPr>
       <t>response</t>
     </r>
-  </si>
-  <si>
-    <t>GET /v1/users/search?name=xxx&amp;email=zzz</t>
-  </si>
-  <si>
-    <t>GET /v1/articles/search?keyword=xxx</t>
   </si>
   <si>
     <t>Error Code</t>
@@ -893,12 +881,177 @@
   <si>
     <t>Username existed.</t>
   </si>
+  <si>
+    <t>User login</t>
+  </si>
+  <si>
+    <t>User logout</t>
+  </si>
+  <si>
+    <t>Search user by name</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Update user info</t>
+  </si>
+  <si>
+    <t>Get user info</t>
+  </si>
+  <si>
+    <t>Login account</t>
+  </si>
+  <si>
+    <t>Logout account</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>update user's information</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>get user's information</t>
+  </si>
+  <si>
+    <t>change password</t>
+  </si>
+  <si>
+    <t>search user by name</t>
+  </si>
+  <si>
+    <t>GET /v1/users/search?name=xxx</t>
+  </si>
+  <si>
+    <t>GET /v1/users/</t>
+  </si>
+  <si>
+    <t>Create post</t>
+  </si>
+  <si>
+    <t>Active/Deactive post</t>
+  </si>
+  <si>
+    <t>Edit post</t>
+  </si>
+  <si>
+    <t>Delete post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get all posts </t>
+  </si>
+  <si>
+    <t>Get all posts for user</t>
+  </si>
+  <si>
+    <t>Add comment</t>
+  </si>
+  <si>
+    <t>Edit comment</t>
+  </si>
+  <si>
+    <t>Delete comment</t>
+  </si>
+  <si>
+    <t>Get all comments for a post</t>
+  </si>
+  <si>
+    <t>Get all comments for a user</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/v1/posts</t>
+  </si>
+  <si>
+    <t>/v1/comments</t>
+  </si>
+  <si>
+    <t>GET /v1/posts</t>
+  </si>
+  <si>
+    <t>PUT /v1/posts</t>
+  </si>
+  <si>
+    <t>POST /v1/comments</t>
+  </si>
+  <si>
+    <t>PUT /v1/comments</t>
+  </si>
+  <si>
+    <t>DELETE /v1/posts</t>
+  </si>
+  <si>
+    <t>DELETE /v1/comments</t>
+  </si>
+  <si>
+    <t>GET /v1/comments</t>
+  </si>
+  <si>
+    <t>create a new post</t>
+  </si>
+  <si>
+    <t>active or deactive a post</t>
+  </si>
+  <si>
+    <t>edit a post</t>
+  </si>
+  <si>
+    <t>delete a post</t>
+  </si>
+  <si>
+    <t>get a list of posts</t>
+  </si>
+  <si>
+    <t>get a list of posts from a user</t>
+  </si>
+  <si>
+    <t>create a new comment</t>
+  </si>
+  <si>
+    <t>edit a comment</t>
+  </si>
+  <si>
+    <t>delete a comment</t>
+  </si>
+  <si>
+    <t>get a list of comments from a post</t>
+  </si>
+  <si>
+    <t>get a list of comments from a user</t>
+  </si>
+  <si>
+    <t>GET /v1/posts/deactive?value=xxx</t>
+  </si>
+  <si>
+    <t>GET /v1/posts/search?user_id=xxx</t>
+  </si>
+  <si>
+    <t>Database Error(3001 -&gt; 3500)</t>
+  </si>
+  <si>
+    <t>POST http://domain.name/miniblog/api/v1/users</t>
+  </si>
+  <si>
+    <t>GET http://domain.name/miniblog/api/v1/users</t>
+  </si>
+  <si>
+    <t>PUT http://domain.name/miniblog/api/v1/users</t>
+  </si>
+  <si>
+    <t>POST http://domain.name/miniblog/api/v1/posts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1101,13 +1254,19 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0070C0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1755,7 +1914,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1993,30 +2152,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2069,46 +2207,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="34" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2144,6 +2264,84 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="280" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2301,7 +2499,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2337,35 +2535,26 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2378,11 +2567,23 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="411">
@@ -4694,301 +4895,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="163" t="s">
+      <c r="B1" s="174"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="165" t="s">
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="166"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="168" t="s">
-        <v>154</v>
-      </c>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="171" t="s">
+      <c r="L1" s="179"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="181" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="182"/>
+      <c r="T1" s="182"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="172"/>
-      <c r="X1" s="172"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="172"/>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="172"/>
-      <c r="AD1" s="173"/>
+      <c r="W1" s="185"/>
+      <c r="X1" s="185"/>
+      <c r="Y1" s="185"/>
+      <c r="Z1" s="185"/>
+      <c r="AA1" s="185"/>
+      <c r="AB1" s="185"/>
+      <c r="AC1" s="185"/>
+      <c r="AD1" s="186"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="177" t="s">
+      <c r="B2" s="174"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="178"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="189" t="s">
-        <v>239</v>
-      </c>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="174" t="s">
-        <v>158</v>
-      </c>
-      <c r="W2" s="175"/>
-      <c r="X2" s="176"/>
-      <c r="Y2" s="174" t="s">
+      <c r="L2" s="191"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="202" t="s">
+        <v>235</v>
+      </c>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="187" t="s">
+        <v>157</v>
+      </c>
+      <c r="W2" s="188"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="176"/>
-      <c r="AB2" s="174" t="s">
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="176"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="189"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="180" t="s">
+      <c r="B3" s="191"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="193" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="190" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="191"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="178"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="168" t="s">
-        <v>157</v>
-      </c>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="182" t="s">
-        <v>240</v>
-      </c>
-      <c r="W3" s="183"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="185">
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="182"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="182"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="195" t="s">
+        <v>236</v>
+      </c>
+      <c r="W3" s="196"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="198">
         <v>42018</v>
       </c>
-      <c r="Z3" s="186"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="186"/>
-      <c r="AD3" s="187"/>
+      <c r="Z3" s="199"/>
+      <c r="AA3" s="200"/>
+      <c r="AB3" s="201"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="200"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="217" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204" t="s">
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204" t="s">
+      <c r="G8" s="217"/>
+      <c r="H8" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="204"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="204" t="s">
+      <c r="I8" s="217"/>
+      <c r="J8" s="217"/>
+      <c r="K8" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="204"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="204"/>
-      <c r="Q8" s="204"/>
-      <c r="R8" s="204"/>
-      <c r="S8" s="204"/>
-      <c r="T8" s="204"/>
-      <c r="U8" s="204"/>
-      <c r="V8" s="204"/>
-      <c r="W8" s="204"/>
-      <c r="X8" s="204" t="s">
+      <c r="L8" s="217"/>
+      <c r="M8" s="217"/>
+      <c r="N8" s="217"/>
+      <c r="O8" s="217"/>
+      <c r="P8" s="217"/>
+      <c r="Q8" s="217"/>
+      <c r="R8" s="217"/>
+      <c r="S8" s="217"/>
+      <c r="T8" s="217"/>
+      <c r="U8" s="217"/>
+      <c r="V8" s="217"/>
+      <c r="W8" s="217"/>
+      <c r="X8" s="217" t="s">
         <v>36</v>
       </c>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="204"/>
-      <c r="AA8" s="204"/>
-      <c r="AB8" s="204"/>
-      <c r="AC8" s="204"/>
+      <c r="Y8" s="217"/>
+      <c r="Z8" s="217"/>
+      <c r="AA8" s="217"/>
+      <c r="AB8" s="217"/>
+      <c r="AC8" s="217"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="192">
+      <c r="B9" s="205">
         <v>42018</v>
       </c>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="195" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="199"/>
-      <c r="M9" s="199"/>
-      <c r="N9" s="199"/>
-      <c r="O9" s="199"/>
-      <c r="P9" s="199"/>
-      <c r="Q9" s="199"/>
-      <c r="R9" s="199"/>
-      <c r="S9" s="199"/>
-      <c r="T9" s="199"/>
-      <c r="U9" s="199"/>
-      <c r="V9" s="199"/>
-      <c r="W9" s="200"/>
-      <c r="X9" s="201"/>
-      <c r="Y9" s="202"/>
-      <c r="Z9" s="202"/>
-      <c r="AA9" s="202"/>
-      <c r="AB9" s="202"/>
-      <c r="AC9" s="203"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="206"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="208" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="209"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="206"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="212"/>
+      <c r="M9" s="212"/>
+      <c r="N9" s="212"/>
+      <c r="O9" s="212"/>
+      <c r="P9" s="212"/>
+      <c r="Q9" s="212"/>
+      <c r="R9" s="212"/>
+      <c r="S9" s="212"/>
+      <c r="T9" s="212"/>
+      <c r="U9" s="212"/>
+      <c r="V9" s="212"/>
+      <c r="W9" s="213"/>
+      <c r="X9" s="214"/>
+      <c r="Y9" s="215"/>
+      <c r="Z9" s="215"/>
+      <c r="AA9" s="215"/>
+      <c r="AB9" s="215"/>
+      <c r="AC9" s="216"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="197"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="199"/>
-      <c r="M10" s="199"/>
-      <c r="N10" s="199"/>
-      <c r="O10" s="199"/>
-      <c r="P10" s="199"/>
-      <c r="Q10" s="199"/>
-      <c r="R10" s="199"/>
-      <c r="S10" s="199"/>
-      <c r="T10" s="199"/>
-      <c r="U10" s="199"/>
-      <c r="V10" s="199"/>
-      <c r="W10" s="200"/>
-      <c r="X10" s="201"/>
-      <c r="Y10" s="202"/>
-      <c r="Z10" s="202"/>
-      <c r="AA10" s="202"/>
-      <c r="AB10" s="202"/>
-      <c r="AC10" s="203"/>
+      <c r="B10" s="210"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="208"/>
+      <c r="G10" s="209"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="207"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="212"/>
+      <c r="M10" s="212"/>
+      <c r="N10" s="212"/>
+      <c r="O10" s="212"/>
+      <c r="P10" s="212"/>
+      <c r="Q10" s="212"/>
+      <c r="R10" s="212"/>
+      <c r="S10" s="212"/>
+      <c r="T10" s="212"/>
+      <c r="U10" s="212"/>
+      <c r="V10" s="212"/>
+      <c r="W10" s="213"/>
+      <c r="X10" s="214"/>
+      <c r="Y10" s="215"/>
+      <c r="Z10" s="215"/>
+      <c r="AA10" s="215"/>
+      <c r="AB10" s="215"/>
+      <c r="AC10" s="216"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="197"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="199"/>
-      <c r="M11" s="199"/>
-      <c r="N11" s="199"/>
-      <c r="O11" s="199"/>
-      <c r="P11" s="199"/>
-      <c r="Q11" s="199"/>
-      <c r="R11" s="199"/>
-      <c r="S11" s="199"/>
-      <c r="T11" s="199"/>
-      <c r="U11" s="199"/>
-      <c r="V11" s="199"/>
-      <c r="W11" s="200"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="202"/>
-      <c r="Z11" s="202"/>
-      <c r="AA11" s="202"/>
-      <c r="AB11" s="202"/>
-      <c r="AC11" s="203"/>
+      <c r="B11" s="210"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="208"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="207"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="212"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="212"/>
+      <c r="O11" s="212"/>
+      <c r="P11" s="212"/>
+      <c r="Q11" s="212"/>
+      <c r="R11" s="212"/>
+      <c r="S11" s="212"/>
+      <c r="T11" s="212"/>
+      <c r="U11" s="212"/>
+      <c r="V11" s="212"/>
+      <c r="W11" s="213"/>
+      <c r="X11" s="214"/>
+      <c r="Y11" s="215"/>
+      <c r="Z11" s="215"/>
+      <c r="AA11" s="215"/>
+      <c r="AB11" s="215"/>
+      <c r="AC11" s="216"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="197"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="199"/>
-      <c r="O12" s="199"/>
-      <c r="P12" s="199"/>
-      <c r="Q12" s="199"/>
-      <c r="R12" s="199"/>
-      <c r="S12" s="199"/>
-      <c r="T12" s="199"/>
-      <c r="U12" s="199"/>
-      <c r="V12" s="199"/>
-      <c r="W12" s="200"/>
-      <c r="X12" s="201"/>
-      <c r="Y12" s="202"/>
-      <c r="Z12" s="202"/>
-      <c r="AA12" s="202"/>
-      <c r="AB12" s="202"/>
-      <c r="AC12" s="203"/>
+      <c r="B12" s="210"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="206"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="209"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="206"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="212"/>
+      <c r="P12" s="212"/>
+      <c r="Q12" s="212"/>
+      <c r="R12" s="212"/>
+      <c r="S12" s="212"/>
+      <c r="T12" s="212"/>
+      <c r="U12" s="212"/>
+      <c r="V12" s="212"/>
+      <c r="W12" s="213"/>
+      <c r="X12" s="214"/>
+      <c r="Y12" s="215"/>
+      <c r="Z12" s="215"/>
+      <c r="AA12" s="215"/>
+      <c r="AB12" s="215"/>
+      <c r="AC12" s="216"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -5456,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" s="26" t="s">
         <v>70</v>
@@ -5470,13 +5671,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E39" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="32" t="s">
         <v>119</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="40" spans="3:6" ht="18.75">
@@ -5528,13 +5729,13 @@
         <v>1</v>
       </c>
       <c r="D46" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="F46" s="32" t="s">
         <v>109</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="18.75">
@@ -5542,13 +5743,13 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="F47" s="32" t="s">
         <v>112</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="18.75">
@@ -5597,7 +5798,7 @@
     </row>
     <row r="56" spans="3:6" ht="18.75">
       <c r="C56" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="28"/>
@@ -5605,7 +5806,7 @@
     </row>
     <row r="57" spans="3:6" ht="18.75">
       <c r="C57" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="28"/>
@@ -5630,13 +5831,13 @@
         <v>1</v>
       </c>
       <c r="D59" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="F59" s="32" t="s">
         <v>126</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5676,7 +5877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -5687,11 +5888,11 @@
     <col min="4" max="16384" width="10.875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="131" customFormat="1" ht="26.1" customHeight="1">
+    <row r="1" spans="2:11" s="124" customFormat="1" ht="26.1" customHeight="1">
       <c r="B1" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="130"/>
+        <v>154</v>
+      </c>
+      <c r="C1" s="123"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="45"/>
@@ -5707,8 +5908,8 @@
     </row>
     <row r="4" spans="2:11" ht="15.75">
       <c r="B4" s="48"/>
-      <c r="C4" s="132" t="s">
-        <v>159</v>
+      <c r="C4" s="125" t="s">
+        <v>158</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -5919,8 +6120,8 @@
     </row>
     <row r="23" spans="2:14" ht="15.75">
       <c r="B23" s="48"/>
-      <c r="C23" s="132" t="s">
-        <v>160</v>
+      <c r="C23" s="125" t="s">
+        <v>159</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
@@ -6093,8 +6294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:E51"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -6109,702 +6310,702 @@
     <col min="8" max="16384" width="10.875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="116" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B1" s="129" t="s">
+    <row r="1" spans="2:12" s="109" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117"/>
+      <c r="C1" s="110"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="2:12" ht="15.75">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="4" spans="2:12" ht="15.75">
       <c r="B4" s="100" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="219" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="219"/>
+      <c r="F4" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="114"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="130">
+        <v>1</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="220" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="220"/>
+      <c r="F5" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="206" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="140" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="121"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="143">
-        <v>1</v>
-      </c>
-      <c r="C5" s="144" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="207" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="207"/>
-      <c r="F5" s="145" t="s">
-        <v>226</v>
-      </c>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="124"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="124"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
     </row>
     <row r="8" spans="2:12" ht="15.75">
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
     </row>
     <row r="9" spans="2:12" ht="15.75">
       <c r="B9" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="140" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="206" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="206"/>
-      <c r="F9" s="140" t="s">
-        <v>223</v>
+      <c r="C9" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="219" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="219"/>
+      <c r="F9" s="127" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="122">
+      <c r="B10" s="115">
         <v>1</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="205"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="122">
+      <c r="B11" s="115">
         <v>2</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="122">
+      <c r="B12" s="115">
         <v>3</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="205"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="218"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="122">
+      <c r="B13" s="115">
         <v>4</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="205"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="122">
+      <c r="B14" s="115">
         <v>5</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="205"/>
-      <c r="E14" s="205"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="122">
+      <c r="B15" s="115">
         <v>6</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="205"/>
-      <c r="E15" s="205"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
     </row>
     <row r="17" spans="2:8" ht="15.75">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="118"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="111"/>
     </row>
     <row r="18" spans="2:8" ht="15.75">
       <c r="B18" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="140" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" s="206" t="s">
-        <v>225</v>
-      </c>
-      <c r="E18" s="206"/>
-      <c r="F18" s="140" t="s">
-        <v>223</v>
+      <c r="C18" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="219" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="219"/>
+      <c r="F18" s="127" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="122">
+      <c r="B19" s="115">
         <v>1</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="205"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="122">
+      <c r="B20" s="115">
         <v>2</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="205"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="122">
+      <c r="B21" s="115">
         <v>3</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="205"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="122">
+      <c r="B22" s="115">
         <v>4</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="205"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="122">
+      <c r="B23" s="115">
         <v>5</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="205"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="122">
+      <c r="B24" s="115">
         <v>6</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="205"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
     </row>
     <row r="26" spans="2:8" ht="15.75">
-      <c r="B26" s="119" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="118"/>
+      <c r="B26" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="111"/>
     </row>
     <row r="27" spans="2:8" ht="15.75">
       <c r="B27" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="140" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="206" t="s">
-        <v>225</v>
-      </c>
-      <c r="E27" s="206"/>
-      <c r="F27" s="140" t="s">
-        <v>223</v>
+      <c r="C27" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="219" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="219"/>
+      <c r="F27" s="127" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="143">
+      <c r="B28" s="130">
         <v>1</v>
       </c>
-      <c r="C28" s="144" t="s">
+      <c r="C28" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="207" t="s">
-        <v>242</v>
-      </c>
-      <c r="E28" s="207"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
+      <c r="D28" s="220" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="220"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="122">
+      <c r="B29" s="115">
         <v>2</v>
       </c>
-      <c r="C29" s="123" t="s">
+      <c r="C29" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="205"/>
-      <c r="E29" s="205"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="122">
+      <c r="B30" s="115">
         <v>3</v>
       </c>
-      <c r="C30" s="123" t="s">
+      <c r="C30" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="205"/>
-      <c r="E30" s="205"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="122">
+      <c r="B31" s="115">
         <v>4</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="205"/>
-      <c r="E31" s="205"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="122">
+      <c r="B32" s="115">
         <v>5</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="205"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="122">
+      <c r="B33" s="115">
         <v>6</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="205"/>
-      <c r="E33" s="205"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="122">
+      <c r="B34" s="115">
         <v>7</v>
       </c>
-      <c r="C34" s="123" t="s">
+      <c r="C34" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="205"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="122">
+      <c r="B35" s="115">
         <v>8</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="205"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="122">
+      <c r="B36" s="115">
         <v>9</v>
       </c>
-      <c r="C36" s="123" t="s">
+      <c r="C36" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="205"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
     </row>
     <row r="39" spans="2:8" ht="15.75">
-      <c r="B39" s="119" t="s">
+      <c r="B39" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="111"/>
+    </row>
+    <row r="40" spans="2:8" ht="15.75">
+      <c r="B40" s="113"/>
+      <c r="C40" s="140" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="219" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="219"/>
+      <c r="F40" s="140" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15" customHeight="1">
+      <c r="B41" s="115">
+        <v>1</v>
+      </c>
+      <c r="C41" s="116"/>
+      <c r="D41" s="218"/>
+      <c r="E41" s="218"/>
+      <c r="F41" s="129"/>
+    </row>
+    <row r="42" spans="2:8" ht="15" customHeight="1">
+      <c r="B42" s="115">
+        <v>2</v>
+      </c>
+      <c r="C42" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="118"/>
-    </row>
-    <row r="40" spans="2:8" ht="15.75">
-      <c r="B40" s="120"/>
-      <c r="C40" s="153" t="s">
-        <v>222</v>
-      </c>
-      <c r="D40" s="206" t="s">
-        <v>225</v>
-      </c>
-      <c r="E40" s="206"/>
-      <c r="F40" s="153" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="15" customHeight="1">
-      <c r="B41" s="122">
+      <c r="D42" s="218"/>
+      <c r="E42" s="218"/>
+      <c r="F42" s="129"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="115">
+        <v>3</v>
+      </c>
+      <c r="C43" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="218"/>
+      <c r="E43" s="218"/>
+      <c r="F43" s="129"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="115">
+        <v>4</v>
+      </c>
+      <c r="C44" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="218"/>
+      <c r="E44" s="218"/>
+      <c r="F44" s="129"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="115">
+        <v>5</v>
+      </c>
+      <c r="C45" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="218"/>
+      <c r="E45" s="218"/>
+      <c r="F45" s="129"/>
+    </row>
+    <row r="48" spans="2:8" ht="15.75">
+      <c r="B48" s="171" t="s">
+        <v>307</v>
+      </c>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="111"/>
+    </row>
+    <row r="49" spans="2:6" ht="15.75">
+      <c r="B49" s="113"/>
+      <c r="C49" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="219" t="s">
+        <v>221</v>
+      </c>
+      <c r="E49" s="219"/>
+      <c r="F49" s="127" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="115">
         <v>1</v>
       </c>
-      <c r="C41" s="123"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="205"/>
-      <c r="F41" s="142"/>
-    </row>
-    <row r="42" spans="2:8" ht="15" customHeight="1">
-      <c r="B42" s="122">
+      <c r="C50" s="250" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="251" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" s="251"/>
+      <c r="F50" s="129"/>
+    </row>
+    <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B51" s="115">
         <v>2</v>
       </c>
-      <c r="C42" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="205"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="142"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="122">
+      <c r="C51" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="218"/>
+      <c r="E51" s="218"/>
+      <c r="F51" s="129"/>
+    </row>
+    <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B52" s="115">
         <v>3</v>
       </c>
-      <c r="C43" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="205"/>
-      <c r="E43" s="205"/>
-      <c r="F43" s="142"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="122">
+      <c r="C52" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="218"/>
+      <c r="E52" s="218"/>
+      <c r="F52" s="129"/>
+    </row>
+    <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B53" s="115">
         <v>4</v>
       </c>
-      <c r="C44" s="123" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="205"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="142"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="122">
+      <c r="C53" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="218"/>
+      <c r="E53" s="218"/>
+      <c r="F53" s="129"/>
+    </row>
+    <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B54" s="115">
         <v>5</v>
       </c>
-      <c r="C45" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="205"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="142"/>
-    </row>
-    <row r="48" spans="2:8" ht="15.75">
-      <c r="B48" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="118"/>
-    </row>
-    <row r="49" spans="2:6" ht="15.75">
-      <c r="B49" s="120"/>
-      <c r="C49" s="140" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="206" t="s">
-        <v>225</v>
-      </c>
-      <c r="E49" s="206"/>
-      <c r="F49" s="140" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="122">
+      <c r="C54" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="218"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="129"/>
+    </row>
+    <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B55" s="115">
+        <v>6</v>
+      </c>
+      <c r="C55" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="218"/>
+      <c r="E55" s="218"/>
+      <c r="F55" s="129"/>
+    </row>
+    <row r="56" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B56" s="115">
+        <v>7</v>
+      </c>
+      <c r="C56" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="218"/>
+      <c r="E56" s="218"/>
+      <c r="F56" s="129"/>
+    </row>
+    <row r="59" spans="2:6" ht="15.75">
+      <c r="B59" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="111"/>
+    </row>
+    <row r="60" spans="2:6" ht="15.75">
+      <c r="B60" s="113"/>
+      <c r="C60" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" s="219" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" s="219"/>
+      <c r="F60" s="127" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15" customHeight="1">
+      <c r="B61" s="115">
         <v>1</v>
       </c>
-      <c r="C50" s="123" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="205" t="s">
-        <v>260</v>
-      </c>
-      <c r="E50" s="205"/>
-      <c r="F50" s="142"/>
-    </row>
-    <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="122">
+      <c r="C61" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="221"/>
+      <c r="E61" s="222"/>
+      <c r="F61" s="129"/>
+    </row>
+    <row r="62" spans="2:6" ht="15" customHeight="1">
+      <c r="B62" s="115">
         <v>2</v>
       </c>
-      <c r="C51" s="123" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="205"/>
-      <c r="E51" s="205"/>
-      <c r="F51" s="142"/>
-    </row>
-    <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="122">
+      <c r="C62" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="221"/>
+      <c r="E62" s="222"/>
+      <c r="F62" s="129"/>
+    </row>
+    <row r="63" spans="2:6" ht="15" customHeight="1">
+      <c r="B63" s="115">
         <v>3</v>
       </c>
-      <c r="C52" s="123" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="205"/>
-      <c r="E52" s="205"/>
-      <c r="F52" s="142"/>
-    </row>
-    <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="122">
+      <c r="C63" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="221"/>
+      <c r="E63" s="222"/>
+      <c r="F63" s="129"/>
+    </row>
+    <row r="64" spans="2:6" ht="15" customHeight="1">
+      <c r="B64" s="115">
         <v>4</v>
       </c>
-      <c r="C53" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="205"/>
-      <c r="E53" s="205"/>
-      <c r="F53" s="142"/>
-    </row>
-    <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="122">
+      <c r="C64" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="221"/>
+      <c r="E64" s="222"/>
+      <c r="F64" s="129"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="115">
         <v>5</v>
       </c>
-      <c r="C54" s="123" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="205"/>
-      <c r="E54" s="205"/>
-      <c r="F54" s="142"/>
-    </row>
-    <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="122">
-        <v>6</v>
-      </c>
-      <c r="C55" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="205"/>
-      <c r="E55" s="205"/>
-      <c r="F55" s="142"/>
-    </row>
-    <row r="56" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="122">
-        <v>7</v>
-      </c>
-      <c r="C56" s="123" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="205"/>
-      <c r="E56" s="205"/>
-      <c r="F56" s="142"/>
-    </row>
-    <row r="59" spans="2:6" ht="15.75">
-      <c r="B59" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="128"/>
-      <c r="D59" s="128"/>
-      <c r="E59" s="118"/>
-    </row>
-    <row r="60" spans="2:6" ht="15.75">
-      <c r="B60" s="120"/>
-      <c r="C60" s="140" t="s">
-        <v>222</v>
-      </c>
-      <c r="D60" s="206" t="s">
-        <v>225</v>
-      </c>
-      <c r="E60" s="206"/>
-      <c r="F60" s="140" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="15" customHeight="1">
-      <c r="B61" s="122">
-        <v>1</v>
-      </c>
-      <c r="C61" s="123" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61" s="208"/>
-      <c r="E61" s="209"/>
-      <c r="F61" s="142"/>
-    </row>
-    <row r="62" spans="2:6" ht="15" customHeight="1">
-      <c r="B62" s="122">
-        <v>2</v>
-      </c>
-      <c r="C62" s="123" t="s">
-        <v>104</v>
-      </c>
-      <c r="D62" s="208"/>
-      <c r="E62" s="209"/>
-      <c r="F62" s="142"/>
-    </row>
-    <row r="63" spans="2:6" ht="15" customHeight="1">
-      <c r="B63" s="122">
-        <v>3</v>
-      </c>
-      <c r="C63" s="123" t="s">
-        <v>105</v>
-      </c>
-      <c r="D63" s="208"/>
-      <c r="E63" s="209"/>
-      <c r="F63" s="142"/>
-    </row>
-    <row r="64" spans="2:6" ht="15" customHeight="1">
-      <c r="B64" s="122">
-        <v>4</v>
-      </c>
-      <c r="C64" s="123" t="s">
+      <c r="C65" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="208"/>
-      <c r="E64" s="209"/>
-      <c r="F64" s="142"/>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="122">
-        <v>5</v>
-      </c>
-      <c r="C65" s="123" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="208"/>
-      <c r="E65" s="209"/>
-      <c r="F65" s="142"/>
+      <c r="D65" s="221"/>
+      <c r="E65" s="222"/>
+      <c r="F65" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -6857,7 +7058,7 @@
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6868,10 +7069,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N31"/>
+  <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -6881,16 +7082,16 @@
     <col min="3" max="3" width="26.625" style="36" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="36" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="48.625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="62.375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="17" style="36" customWidth="1"/>
+    <col min="7" max="7" width="51.375" style="36" customWidth="1"/>
     <col min="8" max="8" width="62.875" style="36" customWidth="1"/>
     <col min="9" max="9" width="57.5" style="36" customWidth="1"/>
     <col min="10" max="16384" width="10.875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="34" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B1" s="129" t="s">
-        <v>161</v>
+      <c r="B1" s="122" t="s">
+        <v>160</v>
       </c>
       <c r="C1" s="55"/>
       <c r="D1" s="35"/>
@@ -6929,17 +7130,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="210" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="211"/>
+        <v>167</v>
+      </c>
+      <c r="E4" s="223" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="224"/>
       <c r="G4" s="100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H4" s="100" t="s">
         <v>0</v>
@@ -6949,23 +7150,23 @@
       <c r="B5" s="101">
         <v>1</v>
       </c>
-      <c r="C5" s="102" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="212" t="s">
-        <v>162</v>
+      <c r="C5" s="172" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="225" t="s">
+        <v>161</v>
       </c>
       <c r="E5" s="103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F5" s="104" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="104" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="G5" s="156" t="s">
+        <v>308</v>
       </c>
       <c r="H5" s="105" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I5" s="106"/>
       <c r="J5" s="38"/>
@@ -6974,12 +7175,22 @@
       <c r="B6" s="101">
         <v>2</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="105"/>
+      <c r="C6" s="102" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="226"/>
+      <c r="E6" s="155" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" s="150" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="156" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" s="105" t="s">
+        <v>263</v>
+      </c>
       <c r="I6" s="106"/>
       <c r="J6" s="38"/>
     </row>
@@ -6987,109 +7198,191 @@
       <c r="B7" s="101">
         <v>3</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="105"/>
+      <c r="C7" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="226"/>
+      <c r="E7" s="155" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="150" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="156" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="105" t="s">
+        <v>264</v>
+      </c>
       <c r="I7" s="106"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="101">
+    <row r="8" spans="2:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="148">
         <v>4</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="38"/>
+      <c r="C8" s="149" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="226"/>
+      <c r="E8" s="147" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="150" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="150" t="s">
+        <v>310</v>
+      </c>
+      <c r="H8" s="151" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="152"/>
+      <c r="J8" s="153"/>
     </row>
     <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="101">
         <v>5</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="106"/>
+      <c r="C9" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="226"/>
+      <c r="E9" s="155" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="156" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="156" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="157" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="158" t="s">
+        <v>272</v>
+      </c>
       <c r="J9" s="38"/>
     </row>
-    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="101">
+    <row r="10" spans="2:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="148">
         <v>6</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="106" t="s">
-        <v>220</v>
-      </c>
-      <c r="J10" s="38"/>
+      <c r="C10" s="149" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="226"/>
+      <c r="E10" s="147" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="150" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="150" t="s">
+        <v>310</v>
+      </c>
+      <c r="H10" s="151" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10" s="152"/>
+      <c r="J10" s="153"/>
     </row>
     <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="101">
         <v>7</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="106"/>
+      <c r="C11" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="227"/>
+      <c r="E11" s="155" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="156" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="156" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" s="157" t="s">
+        <v>270</v>
+      </c>
+      <c r="I11" s="158" t="s">
+        <v>271</v>
+      </c>
       <c r="J11" s="38"/>
     </row>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="101">
         <v>8</v>
       </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="215" t="s">
-        <v>245</v>
-      </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110"/>
+      <c r="C12" s="159" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="228" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="161" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="167" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="167" t="s">
+        <v>311</v>
+      </c>
+      <c r="H12" s="169" t="s">
+        <v>294</v>
+      </c>
       <c r="I12" s="106"/>
       <c r="J12" s="38"/>
     </row>
-    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="101">
+    <row r="13" spans="2:14" s="154" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="148">
         <v>9</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="106" t="s">
-        <v>221</v>
-      </c>
-      <c r="J13" s="38"/>
+      <c r="C13" s="163" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="229"/>
+      <c r="E13" s="164" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" s="167" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="165" t="s">
+        <v>287</v>
+      </c>
+      <c r="H13" s="166" t="s">
+        <v>295</v>
+      </c>
+      <c r="I13" s="152" t="s">
+        <v>305</v>
+      </c>
+      <c r="J13" s="153"/>
     </row>
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="101">
         <v>10</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="110"/>
+      <c r="C14" s="159" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="229"/>
+      <c r="E14" s="161" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="167" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="167" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14" s="169" t="s">
+        <v>296</v>
+      </c>
       <c r="I14" s="106"/>
       <c r="J14" s="38"/>
     </row>
@@ -7097,12 +7390,22 @@
       <c r="B15" s="101">
         <v>11</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="110"/>
+      <c r="C15" s="159" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="229"/>
+      <c r="E15" s="161" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" s="167" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" s="167" t="s">
+        <v>291</v>
+      </c>
+      <c r="H15" s="169" t="s">
+        <v>297</v>
+      </c>
       <c r="I15" s="106"/>
       <c r="J15" s="38"/>
     </row>
@@ -7110,12 +7413,22 @@
       <c r="B16" s="101">
         <v>12</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="216"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="110"/>
+      <c r="C16" s="159" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="229"/>
+      <c r="E16" s="161" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="167" t="s">
+        <v>285</v>
+      </c>
+      <c r="G16" s="167" t="s">
+        <v>287</v>
+      </c>
+      <c r="H16" s="169" t="s">
+        <v>298</v>
+      </c>
       <c r="I16" s="106"/>
       <c r="J16" s="38"/>
     </row>
@@ -7123,25 +7436,49 @@
       <c r="B17" s="101">
         <v>13</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="106"/>
+      <c r="C17" s="159" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="229"/>
+      <c r="E17" s="161" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="107" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="167" t="s">
+        <v>287</v>
+      </c>
+      <c r="H17" s="169" t="s">
+        <v>299</v>
+      </c>
+      <c r="I17" s="158" t="s">
+        <v>306</v>
+      </c>
       <c r="J17" s="38"/>
     </row>
     <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="101">
         <v>14</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
+      <c r="C18" s="160" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="230" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="162" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="168" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" s="168" t="s">
+        <v>289</v>
+      </c>
+      <c r="H18" s="170" t="s">
+        <v>300</v>
+      </c>
       <c r="I18" s="106"/>
       <c r="J18" s="38"/>
     </row>
@@ -7149,12 +7486,22 @@
       <c r="B19" s="101">
         <v>15</v>
       </c>
-      <c r="C19" s="107"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110"/>
+      <c r="C19" s="160" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="231"/>
+      <c r="E19" s="162" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="168" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" s="168" t="s">
+        <v>290</v>
+      </c>
+      <c r="H19" s="170" t="s">
+        <v>301</v>
+      </c>
       <c r="I19" s="106"/>
       <c r="J19" s="38"/>
     </row>
@@ -7162,14 +7509,22 @@
       <c r="B20" s="101">
         <v>16</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="217" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="114"/>
+      <c r="C20" s="160" t="s">
+        <v>281</v>
+      </c>
+      <c r="D20" s="231"/>
+      <c r="E20" s="162" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="168" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="168" t="s">
+        <v>292</v>
+      </c>
+      <c r="H20" s="170" t="s">
+        <v>302</v>
+      </c>
       <c r="I20" s="106"/>
       <c r="J20" s="38"/>
     </row>
@@ -7177,12 +7532,22 @@
       <c r="B21" s="101">
         <v>17</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="218"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="114"/>
+      <c r="C21" s="160" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" s="231"/>
+      <c r="E21" s="162" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="168" t="s">
+        <v>286</v>
+      </c>
+      <c r="G21" s="168" t="s">
+        <v>293</v>
+      </c>
+      <c r="H21" s="170" t="s">
+        <v>303</v>
+      </c>
       <c r="I21" s="106"/>
       <c r="J21" s="38"/>
     </row>
@@ -7190,136 +7555,82 @@
       <c r="B22" s="101">
         <v>18</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="114"/>
+      <c r="C22" s="160" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="231"/>
+      <c r="E22" s="162" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="168" t="s">
+        <v>286</v>
+      </c>
+      <c r="G22" s="168" t="s">
+        <v>293</v>
+      </c>
+      <c r="H22" s="170" t="s">
+        <v>304</v>
+      </c>
       <c r="I22" s="106"/>
       <c r="J22" s="38"/>
     </row>
     <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="101">
-        <v>19</v>
-      </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="114"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="105"/>
       <c r="I23" s="106"/>
       <c r="J23" s="38"/>
     </row>
     <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="101">
-        <v>20</v>
-      </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="106"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
       <c r="J24" s="38"/>
     </row>
     <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="101">
-        <v>21</v>
-      </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="106"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="59"/>
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="101">
-        <v>22</v>
-      </c>
-      <c r="C26" s="102"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="106"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="59"/>
       <c r="J26" s="38"/>
-    </row>
-    <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="101">
-        <v>23</v>
-      </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="38"/>
-    </row>
-    <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="101">
-        <v>24</v>
-      </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="56"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="30" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="39"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="38"/>
-    </row>
-    <row r="31" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="39"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="D5:D11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="D18:D22"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
+  <hyperlinks>
+    <hyperlink ref="C5" location="' Create user account'!A1" display="Create user account"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7332,9 +7643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:E47"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -7372,10 +7681,10 @@
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="152" t="s">
-        <v>238</v>
+        <v>141</v>
+      </c>
+      <c r="B2" s="139" t="s">
+        <v>234</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -7394,7 +7703,7 @@
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="64"/>
       <c r="B3" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="64"/>
@@ -7413,17 +7722,17 @@
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="64"/>
       <c r="B4" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="223" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="224"/>
-      <c r="I4" s="222"/>
+        <v>128</v>
+      </c>
+      <c r="C4" s="235" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="236"/>
       <c r="J4" s="64"/>
       <c r="K4" s="64"/>
       <c r="L4" s="64"/>
@@ -7434,17 +7743,17 @@
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="64"/>
       <c r="B5" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="223" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="224"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="222"/>
+        <v>129</v>
+      </c>
+      <c r="C5" s="235" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
+      <c r="I5" s="236"/>
       <c r="J5" s="64"/>
       <c r="K5" s="64"/>
       <c r="L5" s="64"/>
@@ -7455,10 +7764,10 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="64"/>
       <c r="B6" s="68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" s="99" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="70"/>
       <c r="E6" s="70"/>
@@ -7476,17 +7785,17 @@
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="64"/>
       <c r="B7" s="68" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="223" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="224"/>
-      <c r="I7" s="222"/>
+        <v>181</v>
+      </c>
+      <c r="C7" s="235" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="237"/>
+      <c r="H7" s="237"/>
+      <c r="I7" s="236"/>
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
       <c r="L7" s="64"/>
@@ -7497,7 +7806,7 @@
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="64"/>
       <c r="B8" s="68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="69" t="s">
         <v>24</v>
@@ -7518,17 +7827,17 @@
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="64"/>
       <c r="B9" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="223" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="224"/>
-      <c r="H9" s="224"/>
-      <c r="I9" s="222"/>
+        <v>214</v>
+      </c>
+      <c r="C9" s="235" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="237"/>
+      <c r="I9" s="236"/>
       <c r="J9" s="64"/>
       <c r="K9" s="64"/>
       <c r="L9" s="64"/>
@@ -7556,7 +7865,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="64"/>
       <c r="B11" s="72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11" s="72"/>
       <c r="D11" s="64"/>
@@ -7591,19 +7900,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="64"/>
-      <c r="B13" s="230" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="231"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="231"/>
-      <c r="G13" s="231"/>
-      <c r="H13" s="231"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="231"/>
-      <c r="K13" s="231"/>
-      <c r="L13" s="232"/>
+      <c r="B13" s="240" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="241"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="242"/>
       <c r="M13" s="64"/>
       <c r="N13" s="64"/>
       <c r="O13" s="64"/>
@@ -7612,31 +7921,31 @@
       <c r="A14" s="64"/>
       <c r="B14" s="73"/>
       <c r="C14" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="E14" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="F14" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="G14" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="G14" s="74" t="s">
+      <c r="H14" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="H14" s="74" t="s">
+      <c r="I14" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="220" t="s">
+      <c r="J14" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="220"/>
-      <c r="L14" s="220"/>
+      <c r="K14" s="249"/>
+      <c r="L14" s="249"/>
       <c r="M14" s="64"/>
       <c r="N14" s="64"/>
       <c r="O14" s="64"/>
@@ -7645,16 +7954,16 @@
       <c r="A15" s="64"/>
       <c r="B15" s="75"/>
       <c r="C15" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>175</v>
-      </c>
       <c r="F15" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G15" s="78">
         <v>4</v>
@@ -7662,14 +7971,14 @@
       <c r="H15" s="78">
         <v>50</v>
       </c>
-      <c r="I15" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="J15" s="233" t="s">
-        <v>177</v>
-      </c>
-      <c r="K15" s="233"/>
-      <c r="L15" s="233"/>
+      <c r="I15" s="144" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="243" t="s">
+        <v>175</v>
+      </c>
+      <c r="K15" s="243"/>
+      <c r="L15" s="243"/>
       <c r="M15" s="64"/>
       <c r="N15" s="64"/>
       <c r="O15" s="64"/>
@@ -7678,16 +7987,16 @@
       <c r="A16" s="64"/>
       <c r="B16" s="75"/>
       <c r="C16" s="76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E16" s="78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G16" s="78">
         <v>4</v>
@@ -7695,14 +8004,14 @@
       <c r="H16" s="78">
         <v>50</v>
       </c>
-      <c r="I16" s="157" t="s">
-        <v>180</v>
-      </c>
-      <c r="J16" s="233" t="s">
-        <v>181</v>
-      </c>
-      <c r="K16" s="233"/>
-      <c r="L16" s="233"/>
+      <c r="I16" s="144" t="s">
+        <v>178</v>
+      </c>
+      <c r="J16" s="243" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="243"/>
+      <c r="L16" s="243"/>
       <c r="M16" s="64"/>
       <c r="N16" s="64"/>
       <c r="O16" s="64"/>
@@ -7711,28 +8020,28 @@
       <c r="A17" s="64"/>
       <c r="B17" s="75"/>
       <c r="C17" s="76" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H17" s="78">
         <v>50</v>
       </c>
-      <c r="I17" s="157" t="s">
+      <c r="I17" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" s="69" t="s">
         <v>188</v>
-      </c>
-      <c r="J17" s="69" t="s">
-        <v>190</v>
       </c>
       <c r="K17" s="70"/>
       <c r="L17" s="71"/>
@@ -7744,31 +8053,31 @@
       <c r="A18" s="64"/>
       <c r="B18" s="75"/>
       <c r="C18" s="76" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E18" s="78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H18" s="78">
         <v>50</v>
       </c>
       <c r="I18" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="J18" s="223" t="s">
-        <v>192</v>
-      </c>
-      <c r="K18" s="224"/>
-      <c r="L18" s="222"/>
+        <v>187</v>
+      </c>
+      <c r="J18" s="235" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" s="237"/>
+      <c r="L18" s="236"/>
       <c r="M18" s="64"/>
       <c r="N18" s="64"/>
       <c r="O18" s="64"/>
@@ -7777,27 +8086,27 @@
       <c r="A19" s="64"/>
       <c r="B19" s="75"/>
       <c r="C19" s="76" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E19" s="78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
       <c r="I19" s="78" t="s">
-        <v>252</v>
-      </c>
-      <c r="J19" s="154" t="s">
-        <v>253</v>
-      </c>
-      <c r="K19" s="155"/>
-      <c r="L19" s="156"/>
+        <v>248</v>
+      </c>
+      <c r="J19" s="141" t="s">
+        <v>249</v>
+      </c>
+      <c r="K19" s="142"/>
+      <c r="L19" s="143"/>
       <c r="M19" s="64"/>
       <c r="N19" s="64"/>
       <c r="O19" s="64"/>
@@ -7806,16 +8115,16 @@
       <c r="A20" s="64"/>
       <c r="B20" s="75"/>
       <c r="C20" s="76" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E20" s="78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G20" s="78">
         <v>0</v>
@@ -7826,11 +8135,11 @@
       <c r="I20" s="78">
         <v>1</v>
       </c>
-      <c r="J20" s="154" t="s">
-        <v>254</v>
-      </c>
-      <c r="K20" s="155"/>
-      <c r="L20" s="156"/>
+      <c r="J20" s="141" t="s">
+        <v>250</v>
+      </c>
+      <c r="K20" s="142"/>
+      <c r="L20" s="143"/>
       <c r="M20" s="64"/>
       <c r="N20" s="64"/>
       <c r="O20" s="64"/>
@@ -7839,27 +8148,27 @@
       <c r="A21" s="64"/>
       <c r="B21" s="75"/>
       <c r="C21" s="76" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E21" s="78" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G21" s="78"/>
       <c r="H21" s="78"/>
-      <c r="I21" s="158">
+      <c r="I21" s="145">
         <v>42019</v>
       </c>
-      <c r="J21" s="154" t="s">
-        <v>255</v>
-      </c>
-      <c r="K21" s="155"/>
-      <c r="L21" s="156"/>
+      <c r="J21" s="141" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="142"/>
+      <c r="L21" s="143"/>
       <c r="M21" s="64"/>
       <c r="N21" s="64"/>
       <c r="O21" s="64"/>
@@ -7868,31 +8177,31 @@
       <c r="A22" s="64"/>
       <c r="B22" s="79"/>
       <c r="C22" s="76" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D22" s="77" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E22" s="78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G22" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H22" s="78">
         <v>255</v>
       </c>
-      <c r="I22" s="159" t="s">
-        <v>196</v>
-      </c>
-      <c r="J22" s="223" t="s">
-        <v>197</v>
-      </c>
-      <c r="K22" s="224"/>
-      <c r="L22" s="222"/>
+      <c r="I22" s="146" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" s="235" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" s="237"/>
+      <c r="L22" s="236"/>
       <c r="M22" s="64"/>
       <c r="N22" s="64"/>
       <c r="O22" s="64"/>
@@ -7917,7 +8226,7 @@
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="64"/>
       <c r="B24" s="72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="80"/>
@@ -8054,11 +8363,11 @@
     </row>
     <row r="32" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="67"/>
-      <c r="B32" s="234" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" s="234"/>
-      <c r="D32" s="234"/>
+      <c r="B32" s="244" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
       <c r="E32" s="83"/>
       <c r="F32" s="84"/>
       <c r="G32" s="83"/>
@@ -8073,32 +8382,32 @@
     </row>
     <row r="33" spans="1:15" s="87" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="86"/>
-      <c r="B33" s="227" t="s">
+      <c r="B33" s="232" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="234"/>
+      <c r="F33" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="228"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="74" t="s">
+      <c r="H33" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="H33" s="74" t="s">
+      <c r="I33" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="I33" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="J33" s="74" t="s">
+      <c r="K33" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="K33" s="74" t="s">
-        <v>137</v>
-      </c>
       <c r="L33" s="74" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M33" s="86"/>
       <c r="N33" s="86"/>
@@ -8107,28 +8416,28 @@
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="64"/>
       <c r="B34" s="88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C34" s="89"/>
       <c r="D34" s="89"/>
       <c r="E34" s="90"/>
       <c r="F34" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G34" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H34" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I34" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J34" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K34" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L34" s="77"/>
       <c r="M34" s="64"/>
@@ -8139,27 +8448,27 @@
       <c r="A35" s="64"/>
       <c r="B35" s="88"/>
       <c r="C35" s="91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D35" s="92"/>
       <c r="E35" s="90"/>
       <c r="F35" s="76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G35" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I35" s="78">
         <v>1</v>
       </c>
       <c r="J35" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K35" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L35" s="77"/>
       <c r="M35" s="64"/>
@@ -8170,30 +8479,30 @@
       <c r="A36" s="64"/>
       <c r="B36" s="88"/>
       <c r="C36" s="93"/>
-      <c r="D36" s="223" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" s="222"/>
+      <c r="D36" s="235" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="236"/>
       <c r="F36" s="76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G36" s="78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H36" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I36" s="78">
         <v>1</v>
       </c>
       <c r="J36" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K36" s="78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L36" s="77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M36" s="64"/>
       <c r="N36" s="64"/>
@@ -8203,30 +8512,30 @@
       <c r="A37" s="64"/>
       <c r="B37" s="88"/>
       <c r="C37" s="95"/>
-      <c r="D37" s="223" t="s">
-        <v>204</v>
-      </c>
-      <c r="E37" s="222"/>
+      <c r="D37" s="235" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="236"/>
       <c r="F37" s="76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G37" s="78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H37" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I37" s="78">
         <v>1</v>
       </c>
       <c r="J37" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K37" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L37" s="77" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M37" s="64"/>
       <c r="N37" s="64"/>
@@ -8236,30 +8545,30 @@
       <c r="A38" s="64"/>
       <c r="B38" s="88"/>
       <c r="C38" s="91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D38" s="92"/>
       <c r="E38" s="90"/>
       <c r="F38" s="76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G38" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H38" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I38" s="78">
         <v>1</v>
       </c>
       <c r="J38" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K38" s="78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L38" s="77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M38" s="64"/>
       <c r="N38" s="64"/>
@@ -8269,30 +8578,30 @@
       <c r="A39" s="64"/>
       <c r="B39" s="88"/>
       <c r="C39" s="98"/>
-      <c r="D39" s="223" t="s">
+      <c r="D39" s="235" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" s="236"/>
+      <c r="F39" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="222"/>
-      <c r="F39" s="76" t="s">
-        <v>209</v>
-      </c>
       <c r="G39" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H39" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I39" s="78">
         <v>1</v>
       </c>
       <c r="J39" s="78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K39" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L39" s="77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M39" s="64"/>
       <c r="N39" s="64"/>
@@ -8302,30 +8611,30 @@
       <c r="A40" s="64"/>
       <c r="B40" s="88"/>
       <c r="C40" s="98"/>
-      <c r="D40" s="225" t="s">
+      <c r="D40" s="238" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="239"/>
+      <c r="F40" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="226"/>
-      <c r="F40" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" s="78" t="s">
-        <v>175</v>
-      </c>
       <c r="H40" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I40" s="78">
         <v>1</v>
       </c>
       <c r="J40" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K40" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L40" s="77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M40" s="64"/>
       <c r="N40" s="64"/>
@@ -8335,30 +8644,30 @@
       <c r="A41" s="64"/>
       <c r="B41" s="88"/>
       <c r="C41" s="93"/>
-      <c r="D41" s="223" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="222"/>
+      <c r="D41" s="235" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="236"/>
       <c r="F41" s="76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G41" s="78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H41" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I41" s="78">
         <v>1</v>
       </c>
       <c r="J41" s="78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K41" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L41" s="77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M41" s="64"/>
       <c r="N41" s="64"/>
@@ -8369,29 +8678,29 @@
       <c r="B42" s="88"/>
       <c r="C42" s="93"/>
       <c r="D42" s="69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E42" s="71"/>
       <c r="F42" s="76" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G42" s="78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H42" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I42" s="78">
         <v>1</v>
       </c>
       <c r="J42" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K42" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L42" s="77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M42" s="64"/>
       <c r="N42" s="64"/>
@@ -8401,18 +8710,18 @@
       <c r="A43" s="64"/>
       <c r="B43" s="88"/>
       <c r="C43" s="93"/>
-      <c r="D43" s="154" t="s">
-        <v>246</v>
-      </c>
-      <c r="E43" s="156"/>
+      <c r="D43" s="141" t="s">
+        <v>242</v>
+      </c>
+      <c r="E43" s="143"/>
       <c r="F43" s="76" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G43" s="78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H43" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I43" s="78">
         <v>1</v>
@@ -8420,7 +8729,7 @@
       <c r="J43" s="78"/>
       <c r="K43" s="78"/>
       <c r="L43" s="77" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M43" s="64"/>
       <c r="N43" s="64"/>
@@ -8430,18 +8739,18 @@
       <c r="A44" s="64"/>
       <c r="B44" s="88"/>
       <c r="C44" s="93"/>
-      <c r="D44" s="154" t="s">
-        <v>247</v>
-      </c>
-      <c r="E44" s="156"/>
+      <c r="D44" s="141" t="s">
+        <v>243</v>
+      </c>
+      <c r="E44" s="143"/>
       <c r="F44" s="76" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G44" s="78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H44" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I44" s="78">
         <v>1</v>
@@ -8449,7 +8758,7 @@
       <c r="J44" s="78"/>
       <c r="K44" s="78"/>
       <c r="L44" s="77" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M44" s="64"/>
       <c r="N44" s="64"/>
@@ -8459,18 +8768,18 @@
       <c r="A45" s="64"/>
       <c r="B45" s="88"/>
       <c r="C45" s="93"/>
-      <c r="D45" s="154" t="s">
-        <v>248</v>
-      </c>
-      <c r="E45" s="156"/>
+      <c r="D45" s="141" t="s">
+        <v>244</v>
+      </c>
+      <c r="E45" s="143"/>
       <c r="F45" s="76" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G45" s="78" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H45" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I45" s="78">
         <v>1</v>
@@ -8478,7 +8787,7 @@
       <c r="J45" s="78"/>
       <c r="K45" s="78"/>
       <c r="L45" s="77" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M45" s="64"/>
       <c r="N45" s="64"/>
@@ -8489,29 +8798,29 @@
       <c r="B46" s="88"/>
       <c r="C46" s="93"/>
       <c r="D46" s="99" t="s">
-        <v>194</v>
-      </c>
-      <c r="E46" s="141"/>
-      <c r="F46" s="147" t="s">
-        <v>195</v>
+        <v>192</v>
+      </c>
+      <c r="E46" s="128"/>
+      <c r="F46" s="134" t="s">
+        <v>193</v>
       </c>
       <c r="G46" s="78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H46" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I46" s="78">
         <v>1</v>
       </c>
       <c r="J46" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K46" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="L46" s="149" t="s">
-        <v>237</v>
+        <v>139</v>
+      </c>
+      <c r="L46" s="136" t="s">
+        <v>233</v>
       </c>
       <c r="M46" s="64"/>
       <c r="N46" s="64"/>
@@ -8521,8 +8830,8 @@
       <c r="A47" s="64"/>
       <c r="B47" s="94"/>
       <c r="C47" s="95"/>
-      <c r="D47" s="223"/>
-      <c r="E47" s="222"/>
+      <c r="D47" s="235"/>
+      <c r="E47" s="236"/>
       <c r="F47" s="76"/>
       <c r="G47" s="78"/>
       <c r="H47" s="78"/>
@@ -8554,7 +8863,7 @@
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="64"/>
       <c r="B49" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C49" s="89"/>
       <c r="D49" s="82"/>
@@ -8844,18 +9153,18 @@
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="64"/>
-      <c r="B66" s="235" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="235"/>
-      <c r="D66" s="235"/>
+      <c r="B66" s="245" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="245"/>
+      <c r="D66" s="245"/>
       <c r="E66" s="64"/>
       <c r="F66" s="64"/>
       <c r="G66" s="64"/>
       <c r="H66" s="64"/>
       <c r="I66" s="64"/>
       <c r="J66" s="64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K66" s="64"/>
       <c r="L66" s="64"/>
@@ -8865,29 +9174,29 @@
     </row>
     <row r="67" spans="1:15" s="87" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="86"/>
-      <c r="B67" s="227" t="s">
+      <c r="B67" s="232" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="233"/>
+      <c r="D67" s="233"/>
+      <c r="E67" s="234"/>
+      <c r="F67" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="228"/>
-      <c r="D67" s="228"/>
-      <c r="E67" s="229"/>
-      <c r="F67" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="G67" s="74" t="s">
+      <c r="H67" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="H67" s="74" t="s">
+      <c r="I67" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="J67" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="I67" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="J67" s="74" t="s">
+      <c r="K67" s="74" t="s">
         <v>136</v>
-      </c>
-      <c r="K67" s="74" t="s">
-        <v>137</v>
       </c>
       <c r="L67" s="74" t="s">
         <v>0</v>
@@ -8899,28 +9208,28 @@
     <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="64"/>
       <c r="B68" s="88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" s="89"/>
       <c r="D68" s="89"/>
       <c r="E68" s="90"/>
       <c r="F68" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G68" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H68" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I68" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J68" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K68" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L68" s="77"/>
       <c r="M68" s="64"/>
@@ -8931,27 +9240,27 @@
       <c r="A69" s="64"/>
       <c r="B69" s="88"/>
       <c r="C69" s="91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="92"/>
       <c r="E69" s="90"/>
       <c r="F69" s="76" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G69" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H69" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I69" s="78">
         <v>1</v>
       </c>
       <c r="J69" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K69" s="78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L69" s="77"/>
       <c r="M69" s="64"/>
@@ -8962,30 +9271,30 @@
       <c r="A70" s="64"/>
       <c r="B70" s="88"/>
       <c r="C70" s="93"/>
-      <c r="D70" s="221" t="s">
-        <v>203</v>
-      </c>
-      <c r="E70" s="222"/>
+      <c r="D70" s="246" t="s">
+        <v>201</v>
+      </c>
+      <c r="E70" s="236"/>
       <c r="F70" s="76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G70" s="78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H70" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I70" s="78">
         <v>1</v>
       </c>
       <c r="J70" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K70" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="L70" s="149" t="s">
-        <v>230</v>
+        <v>150</v>
+      </c>
+      <c r="L70" s="136" t="s">
+        <v>226</v>
       </c>
       <c r="M70" s="64"/>
       <c r="N70" s="64"/>
@@ -8995,30 +9304,30 @@
       <c r="A71" s="64"/>
       <c r="B71" s="88"/>
       <c r="C71" s="93"/>
-      <c r="D71" s="221" t="s">
+      <c r="D71" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="E71" s="236"/>
-      <c r="F71" s="147" t="s">
-        <v>228</v>
-      </c>
-      <c r="G71" s="148" t="s">
-        <v>175</v>
+      <c r="E71" s="247"/>
+      <c r="F71" s="134" t="s">
+        <v>224</v>
+      </c>
+      <c r="G71" s="135" t="s">
+        <v>173</v>
       </c>
       <c r="H71" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I71" s="78">
         <v>1</v>
       </c>
-      <c r="J71" s="148" t="s">
-        <v>140</v>
-      </c>
-      <c r="K71" s="148" t="s">
-        <v>140</v>
-      </c>
-      <c r="L71" s="149" t="s">
-        <v>229</v>
+      <c r="J71" s="135" t="s">
+        <v>139</v>
+      </c>
+      <c r="K71" s="135" t="s">
+        <v>139</v>
+      </c>
+      <c r="L71" s="136" t="s">
+        <v>225</v>
       </c>
       <c r="M71" s="64"/>
       <c r="N71" s="64"/>
@@ -9028,30 +9337,30 @@
       <c r="A72" s="64"/>
       <c r="B72" s="88"/>
       <c r="C72" s="93"/>
-      <c r="D72" s="237" t="s">
-        <v>233</v>
-      </c>
-      <c r="E72" s="236"/>
-      <c r="F72" s="147" t="s">
-        <v>231</v>
+      <c r="D72" s="248" t="s">
+        <v>229</v>
+      </c>
+      <c r="E72" s="247"/>
+      <c r="F72" s="134" t="s">
+        <v>227</v>
       </c>
       <c r="G72" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H72" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I72" s="78">
         <v>1</v>
       </c>
       <c r="J72" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K72" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="L72" s="149" t="s">
-        <v>236</v>
+        <v>150</v>
+      </c>
+      <c r="L72" s="136" t="s">
+        <v>232</v>
       </c>
       <c r="M72" s="64"/>
       <c r="N72" s="64"/>
@@ -9061,30 +9370,30 @@
       <c r="A73" s="64"/>
       <c r="B73" s="88"/>
       <c r="C73" s="98"/>
-      <c r="D73" s="151"/>
-      <c r="E73" s="150" t="s">
-        <v>234</v>
-      </c>
-      <c r="F73" s="147" t="s">
-        <v>205</v>
-      </c>
-      <c r="G73" s="148" t="s">
-        <v>175</v>
+      <c r="D73" s="138"/>
+      <c r="E73" s="137" t="s">
+        <v>230</v>
+      </c>
+      <c r="F73" s="134" t="s">
+        <v>203</v>
+      </c>
+      <c r="G73" s="135" t="s">
+        <v>173</v>
       </c>
       <c r="H73" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="I73" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="J73" s="148" t="s">
-        <v>140</v>
-      </c>
-      <c r="K73" s="148" t="s">
-        <v>140</v>
-      </c>
-      <c r="L73" s="149" t="s">
-        <v>235</v>
+        <v>196</v>
+      </c>
+      <c r="I73" s="135" t="s">
+        <v>228</v>
+      </c>
+      <c r="J73" s="135" t="s">
+        <v>139</v>
+      </c>
+      <c r="K73" s="135" t="s">
+        <v>139</v>
+      </c>
+      <c r="L73" s="136" t="s">
+        <v>231</v>
       </c>
       <c r="M73" s="64"/>
       <c r="N73" s="64"/>
@@ -9094,27 +9403,27 @@
       <c r="A74" s="64"/>
       <c r="B74" s="88"/>
       <c r="C74" s="91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D74" s="92"/>
       <c r="E74" s="90"/>
       <c r="F74" s="76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G74" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H74" s="78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I74" s="78">
         <v>1</v>
       </c>
       <c r="J74" s="78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K74" s="78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L74" s="77"/>
       <c r="M74" s="64"/>
@@ -9125,8 +9434,8 @@
       <c r="A75" s="64"/>
       <c r="B75" s="94"/>
       <c r="C75" s="95"/>
-      <c r="D75" s="223"/>
-      <c r="E75" s="222"/>
+      <c r="D75" s="235"/>
+      <c r="E75" s="236"/>
       <c r="F75" s="76"/>
       <c r="G75" s="78"/>
       <c r="H75" s="78"/>
@@ -9158,7 +9467,7 @@
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="64"/>
       <c r="B77" s="72" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C77" s="64"/>
       <c r="D77" s="64"/>
@@ -9532,6 +9841,7 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B67:E67"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -9539,7 +9849,6 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B67:E67"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
